--- a/src/main/resources/templates/report_template.xlsx
+++ b/src/main/resources/templates/report_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9015" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="Active Services" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -103,34 +103,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -166,19 +138,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -461,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,71 +444,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
+    <row r="4" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -549,10 +472,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A4" sqref="A4:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,71 +485,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
+    <row r="4" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -637,10 +513,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:B1048576"/>
+      <selection activeCell="A4" sqref="A4:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,71 +526,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
+    <row r="4" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -725,10 +554,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,87 +568,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
+    <row r="4" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
